--- a/resources/generated_datasets/workflow_dataset/subjects.xlsx
+++ b/resources/generated_datasets/workflow_dataset/subjects.xlsx
@@ -125,10 +125,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-4537737074535526688" xfId="1" hidden="0"/>
-    <cellStyle name="-1738000342357611781" xfId="2" hidden="0"/>
-    <cellStyle name="696939858299312738" xfId="3" hidden="0"/>
-    <cellStyle name="-4224066858418272305" xfId="4" hidden="0"/>
+    <cellStyle name="9120530524398631427" xfId="1" hidden="0"/>
+    <cellStyle name="5766712446141235498" xfId="2" hidden="0"/>
+    <cellStyle name="495934477478281995" xfId="3" hidden="0"/>
+    <cellStyle name="-8417706132746001621" xfId="4" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
